--- a/Documentation/GettingStarted/termsAndAcronyms.xlsx
+++ b/Documentation/GettingStarted/termsAndAcronyms.xlsx
@@ -504,7 +504,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="111.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="99" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
